--- a/biology/Histoire de la zoologie et de la botanique/Edoardo_Francesco_De_Betta/Edoardo_Francesco_De_Betta.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edoardo_Francesco_De_Betta/Edoardo_Francesco_De_Betta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edoardo Francesco De Betta est un noble et un naturaliste italien, né le 6 avril 1822 à Malgolo, dans le Trentin et mort le 4 novembre 1896 à Marcellise (San Martino Buon Albergo, Vérone).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille est originaire de la Galice et s’installe en Italie vers 1100. Passionné très jeune par l’histoire naturelle, son père l’oblige à étudier le droit. Il étudie d’abord à Milan puis à l’université de Pavie où il est diplômé en 1844 et obtient la licence de droit.
 De retour à Milan, il travaille dans les tribunaux de Milan. La mort de son cousin, Teresa De Betta, en février 1848, lui laisse une fortune en héritage. Celle-ci lui permet d’abandonner aussitôt cette carrière imposée pour se consacrer à ses vraies amours. De 1848 à 1853, il étudie la faune et l’archéologie du haut Adige, le Trentin et la Vénétie occidentale.
